--- a/Outputs/PtX_demand_EU27.xlsx
+++ b/Outputs/PtX_demand_EU27.xlsx
@@ -493,53 +493,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2030</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>0.04767602703736284</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.0256421399922213</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>9.650719047247381e-08</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0139364213478969</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2030</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.04767602703736284</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0.06384674424382113</v>
+      </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.0256421399922213</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>9.650719047247381e-08</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0139364213478969</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -547,7 +549,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.06384674424382113</v>
+        <v>0.2606166718406689</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -560,16 +562,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2030</v>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>0.2606166718406689</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -581,7 +581,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -589,18 +589,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.03142499635655529</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.006850337430653599</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>0.0027677793200257</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -608,24 +614,18 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.03142499635655529</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.006850337430653599</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>0.0027677793200257</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -634,17 +634,29 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.4601054722175781</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0052338328056217</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0196526327910718</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.505603413592951</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0077615983989883</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1942107263741033</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -652,30 +664,20 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.4601054722175781</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0052338328056217</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0196526327910718</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.505603413592951</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0077615983989883</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.1942107263741033</v>
-      </c>
+      <c r="E9" t="n">
+        <v>0.191636547641208</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -684,7 +686,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.191636547641208</v>
+        <v>0.0253307242798742</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -696,74 +698,92 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>0.04767602703736284</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3244634160844901</v>
+      </c>
       <c r="E11" t="n">
-        <v>0.0253307242798742</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>0.2483922682776376</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.492597949640453</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0052338328056217</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.01965272929826227</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5223076142608736</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0077615983989883</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1942107263741033</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2040</v>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>0.1667827207976706</v>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.123828508066068</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>8.078717771965139e-06</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0206731691200213</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2040</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.1667827207976706</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>0.06861934800511871</v>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.123828508066068</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>8.078717771965139e-06</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.0206731691200213</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -771,7 +791,7 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>0.06861934800511871</v>
+        <v>0.2800980114612713</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -784,28 +804,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>0.2800980114612713</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>4.430342018497615e-08</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>6.59107821886628e-09</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -813,14 +835,16 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.1044797755817922</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.430342018497615e-08</v>
+        <v>0.008690389568844499</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>6.59107821886628e-09</v>
+        <v>0.0045405627177268</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -828,7 +852,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -836,24 +860,18 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0.1044797755817922</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.008690389568844499</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>0.0045405627177268</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -862,17 +880,29 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.1976866876306986</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0085320109238374</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.030513302511578</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.336774397094971</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0094290823600573</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2230998947077038</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -880,30 +910,20 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.1976866876306986</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0085320109238374</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.030513302511578</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.336774397094971</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0094290823600573</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.2230998947077038</v>
-      </c>
+      <c r="E19" t="n">
+        <v>0.1801364487631514</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -912,7 +932,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.1801364487631514</v>
+        <v>0.07782050277081738</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -924,74 +944,92 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>0.1667827207976706</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.34871735946639</v>
+      </c>
       <c r="E21" t="n">
-        <v>0.07782050277081738</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>0.362436727115761</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3302056295690313</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0085320109238374</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.03052138122934997</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.3619881355237973</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0094290823600573</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.2230998947077038</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2050</v>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>0.3573902270062541</v>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.1714659724771745</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>1.369277589573568e-05</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0330503032681767</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2050</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.3573902270062541</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>0.07337304653696917</v>
+      </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.1714659724771745</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>1.369277589573568e-05</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0330503032681767</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -999,7 +1037,7 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>0.07337304653696917</v>
+        <v>0.2995021816343595</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1012,28 +1050,30 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2050</v>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>0.2995021816343595</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>3.252569000232847e-07</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>1.806523800277289e-07</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1041,14 +1081,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.2110708549639757</v>
+      </c>
       <c r="F26" t="n">
-        <v>3.252569000232847e-07</v>
+        <v>0.0013688136789312</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>1.806523800277289e-07</v>
+        <v>0.0012880990814709</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1056,7 +1098,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1064,24 +1106,30 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0.2110708549639757</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.0013688136789312</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+        <v>2.170542088876529e-09</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.14187847149323e-10</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6.36643277482815e-10</v>
+      </c>
       <c r="I27" t="n">
-        <v>0.0012880990814709</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>5.500158149030991e-09</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6.45781416421835e-11</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.769725436263565e-08</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1091,28 +1139,28 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>2.170542088876529e-09</v>
+        <v>0.0255555178060996</v>
       </c>
       <c r="G28" t="n">
-        <v>3.14187847149323e-10</v>
+        <v>0.0152452055435702</v>
       </c>
       <c r="H28" t="n">
-        <v>6.36643277482815e-10</v>
+        <v>0.048209714232355</v>
       </c>
       <c r="I28" t="n">
-        <v>5.500158149030991e-09</v>
+        <v>0.08705103431697761</v>
       </c>
       <c r="J28" t="n">
-        <v>6.45781416421835e-11</v>
+        <v>0.0121272930583278</v>
       </c>
       <c r="K28" t="n">
-        <v>1.769725436263565e-08</v>
+        <v>0.3162198265627567</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1120,30 +1168,20 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>0.0255555178060996</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0152452055435702</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.048209714232355</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.08705103431697761</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.0121272930583278</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.3162198265627567</v>
-      </c>
+      <c r="E29" t="n">
+        <v>0.1561590393106004</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1152,7 +1190,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.1561590393106004</v>
+        <v>0.1465470035201948</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1164,23 +1202,39 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0.3573902270062541</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.3728752281713287</v>
+      </c>
       <c r="E31" t="n">
-        <v>0.1465470035201948</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>0.513776897794771</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1983906313896474</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01524520585775805</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.04822340764489401</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.1213896228191634</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.01212729312290594</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.3162198442600111</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_EU27.xlsx
+++ b/Outputs/PtX_demand_EU27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,7 +606,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -615,17 +615,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.0987018420880776</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0.0107622081681971</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -634,29 +638,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.4601054722175781</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0052338328056217</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0196526327910718</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.505603413592951</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0077615983989883</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.1942107263741033</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -664,20 +656,30 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0.191636547641208</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.4601054722175781</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0052338328056217</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1516791261017478</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.505603413592951</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0077615983989883</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1942107263741033</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -685,174 +687,178 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0.0253307242798742</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>4.674368493966905</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0368603496540786</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.366319886400831</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.21221133577799</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0469809714380753</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.853329467755661</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.04767602703736284</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.3244634160844901</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.2483922682776376</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.492597949640453</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0052338328056217</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.01965272929826227</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.5223076142608736</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0077615983989883</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1942107263741033</v>
-      </c>
+        <v>0.191636547641208</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1667827207976706</v>
-      </c>
+        <v>2030</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.123828508066068</v>
-      </c>
+      <c r="E12" t="n">
+        <v>0.0253307242798742</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>8.078717771965139e-06</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0206731691200213</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>2030</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.04767602703736284</v>
+      </c>
       <c r="D13" t="n">
-        <v>0.06861934800511871</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>0.3244634160844901</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.2483922682776376</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.265668285695435</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0420941824597003</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.517999109009769</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.745281158207061</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0547425698370636</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.047540194129764</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2040</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>0.2800980114612713</v>
-      </c>
+      <c r="C14" t="n">
+        <v>0.1667827207976706</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.123828508066068</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>8.078717771965139e-06</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0206731691200213</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0.06861934800511871</v>
+      </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>4.430342018497615e-08</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>6.59107821886628e-09</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2040</v>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.1044797755817922</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.008690389568844499</v>
-      </c>
+      <c r="D16" t="n">
+        <v>0.2800980114612713</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>0.0045405627177268</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -861,17 +867,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>4.430342018497615e-08</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>6.59107821886628e-09</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -879,30 +889,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.1044797755817922</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.1976866876306986</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.0085320109238374</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.030513302511578</v>
-      </c>
+        <v>0.008690389568844499</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.336774397094971</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0094290823600573</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.2230998947077038</v>
-      </c>
+        <v>0.0045405627177268</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -910,20 +914,22 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0.1801364487631514</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.0526387370779597</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.0114723959868434</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -931,9 +937,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.07782050277081738</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -944,32 +948,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.1667827207976706</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.34871735946639</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.362436727115761</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.3302056295690313</v>
+        <v>0.1976866876306986</v>
       </c>
       <c r="G21" t="n">
         <v>0.0085320109238374</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03052138122934997</v>
+        <v>0.191236690350285</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3619881355237973</v>
+        <v>0.336774397094971</v>
       </c>
       <c r="J21" t="n">
         <v>0.0094290823600573</v>
@@ -981,44 +979,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.3573902270062541</v>
-      </c>
+        <v>2040</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.1714659724771745</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>1.300194312246819</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0396269252086046</v>
+      </c>
       <c r="H22" t="n">
-        <v>1.369277589573568e-05</v>
+        <v>1.291110846047885</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0330503032681767</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1.448721811248176</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0416914089961789</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.786373646961067</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>0.07337304653696917</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.1801364487631514</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1029,17 +1031,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
-        <v>0.2995021816343595</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.07782050277081738</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1050,47 +1052,63 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+        <v>2040</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1667827207976706</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.34871735946639</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.362436727115761</v>
+      </c>
       <c r="F25" t="n">
-        <v>3.252569000232847e-07</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+        <v>1.68303867889381</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.048158936132442</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.482355615115942</v>
+      </c>
       <c r="I25" t="n">
-        <v>1.806523800277289e-07</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1.822182342758817</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0511204913562362</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.009473541668771</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2050</v>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>0.3573902270062541</v>
+      </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0.2110708549639757</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>0.0013688136789312</v>
+        <v>0.1714659724771745</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>1.369277589573568e-05</v>
+      </c>
       <c r="I26" t="n">
-        <v>0.0012880990814709</v>
+        <v>0.0330503032681767</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1098,69 +1116,49 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2050</v>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0.07337304653696917</v>
+      </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>2.170542088876529e-09</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3.14187847149323e-10</v>
-      </c>
-      <c r="H27" t="n">
-        <v>6.36643277482815e-10</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.500158149030991e-09</v>
-      </c>
-      <c r="J27" t="n">
-        <v>6.45781416421835e-11</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1.769725436263565e-08</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2050</v>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>0.2995021816343595</v>
+      </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>0.0255555178060996</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0152452055435702</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.048209714232355</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.08705103431697761</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.0121272930583278</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.3162198265627567</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1168,20 +1166,22 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0.1561590393106004</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>3.252569000232847e-07</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>1.806523800277289e-07</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1190,50 +1190,212 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.1465470035201948</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>0.2110708549639757</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0013688136789312</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>0.0012880990814709</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>0.0028056621233245</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0.0041978333161224</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>2.170542088876529e-09</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.14187847149323e-10</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6.828878685658796e-09</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.500158149030991e-09</v>
+      </c>
+      <c r="J32" t="n">
+        <v>6.45781416421835e-11</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.769725436263565e-08</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.0255555178060996</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0152452055435702</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.258722724004716</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.08705103431697761</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0121272930583278</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.3162198265627567</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.1305616867782393</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0357418083238652</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.142093803362813</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.25677162471406</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0358859177138772</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.65236904005886</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0.1561590393106004</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.1465470035201948</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="n">
         <v>0.3573902270062541</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>0.3728752281713287</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E37" t="n">
         <v>0.513776897794771</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.1983906313896474</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.01524520585775805</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.04822340764489401</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.1213896228191634</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.01212729312290594</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.3162198442600111</v>
+      <c r="F37" t="n">
+        <v>0.3317579802912112</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.05098701418162325</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.400830226972303</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.3823590808493458</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.04801321083678314</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.968588884318871</v>
       </c>
     </row>
   </sheetData>
